--- a/data/gbs-pheno.xlsx
+++ b/data/gbs-pheno.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weiga\Dropbox\QiuDi\GBS-Wu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weiga\Dropbox\gbs-genomics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{24E9639A-F0CF-44F8-A244-699BBFC634AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86112585-5A5C-4685-A847-4ECC221D1497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29940" yWindow="1395" windowWidth="27780" windowHeight="11670"/>
+    <workbookView xWindow="1800" yWindow="2430" windowWidth="26160" windowHeight="11550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gbs-pheno" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="275">
   <si>
     <t>virulence</t>
   </si>
@@ -850,7 +850,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1684,11 +1684,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" workbookViewId="0">
-      <selection activeCell="D247" sqref="D247"/>
+    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
+      <selection activeCell="C257" sqref="C257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4042,7 +4042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>176</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>177</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>178</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>179</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>180</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>181</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>182</v>
       </c>
@@ -4098,7 +4098,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>183</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>184</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>185</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>186</v>
       </c>
@@ -4130,15 +4130,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>187</v>
       </c>
       <c r="B172" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C172" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>188</v>
       </c>
@@ -4146,7 +4149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>189</v>
       </c>
@@ -4154,7 +4157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>190</v>
       </c>
@@ -4162,7 +4165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>191</v>
       </c>
@@ -4682,7 +4685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>256</v>
       </c>
@@ -4690,7 +4693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>257</v>
       </c>
@@ -4698,7 +4701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>258</v>
       </c>
@@ -4706,7 +4709,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>259</v>
       </c>
@@ -4714,7 +4717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>260</v>
       </c>
@@ -4722,7 +4725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>261</v>
       </c>
@@ -4730,7 +4733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>262</v>
       </c>
@@ -4738,7 +4741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>263</v>
       </c>
@@ -4746,7 +4749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>264</v>
       </c>
@@ -4754,7 +4757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>265</v>
       </c>
@@ -4762,7 +4765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>266</v>
       </c>
@@ -4770,7 +4773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>267</v>
       </c>
@@ -4778,7 +4781,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>268</v>
       </c>
@@ -4786,7 +4789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>269</v>
       </c>
@@ -4794,7 +4797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>270</v>
       </c>
@@ -4802,12 +4805,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>271</v>
       </c>
       <c r="B256" t="s">
         <v>9</v>
+      </c>
+      <c r="C256" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
